--- a/Onyx/wwwroot/formats/Language_Resource_Import_Sample.xlsx
+++ b/Onyx/wwwroot/formats/Language_Resource_Import_Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HRMS\Onyx\Onyx\wwwroot\formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F588CFAF-C0D4-46F5-AE96-74B216367752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDAB325-E863-41D3-9D8E-5ABF789D6855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1281C47-0FEF-4D3F-90EB-4A23722E9F44}"/>
   </bookViews>
@@ -405,9 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55435B5B-380E-4C5C-A6A4-158C9DCD8C2B}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="3" sqref="D1:D1048576 A1:A1048576 B1:B1048576 C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
